--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H2">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I2">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J2">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>51.00002488906747</v>
+        <v>63.77904851719502</v>
       </c>
       <c r="R2">
-        <v>51.00002488906747</v>
+        <v>574.0114366547551</v>
       </c>
       <c r="S2">
-        <v>0.002307142599816749</v>
+        <v>0.002358347502171457</v>
       </c>
       <c r="T2">
-        <v>0.002307142599816749</v>
+        <v>0.002358347502171457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H3">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I3">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J3">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>4525.501196231497</v>
+        <v>5215.783585344568</v>
       </c>
       <c r="R3">
-        <v>4525.501196231497</v>
+        <v>46942.05226810111</v>
       </c>
       <c r="S3">
-        <v>0.2047249313712689</v>
+        <v>0.1928631811910453</v>
       </c>
       <c r="T3">
-        <v>0.2047249313712689</v>
+        <v>0.1928631811910452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H4">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I4">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J4">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>3863.972892309296</v>
+        <v>4842.72016531534</v>
       </c>
       <c r="R4">
-        <v>3863.972892309296</v>
+        <v>43584.48148783806</v>
       </c>
       <c r="S4">
-        <v>0.174798668898197</v>
+        <v>0.1790684757943307</v>
       </c>
       <c r="T4">
-        <v>0.174798668898197</v>
+        <v>0.1790684757943307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H5">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I5">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J5">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>3968.805974677219</v>
+        <v>4583.90555066488</v>
       </c>
       <c r="R5">
-        <v>3968.805974677219</v>
+        <v>41255.14995598392</v>
       </c>
       <c r="S5">
-        <v>0.1795411150191004</v>
+        <v>0.169498329889413</v>
       </c>
       <c r="T5">
-        <v>0.1795411150191004</v>
+        <v>0.169498329889413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H6">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I6">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J6">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>1673.353834356155</v>
+        <v>1954.028106718508</v>
       </c>
       <c r="R6">
-        <v>1673.353834356155</v>
+        <v>17586.25296046658</v>
       </c>
       <c r="S6">
-        <v>0.07569929473970452</v>
+        <v>0.07225377944310366</v>
       </c>
       <c r="T6">
-        <v>0.07569929473970452</v>
+        <v>0.07225377944310366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H7">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I7">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J7">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>688.9711637963167</v>
+        <v>838.7927251706933</v>
       </c>
       <c r="R7">
-        <v>688.9711637963167</v>
+        <v>7549.134526536241</v>
       </c>
       <c r="S7">
-        <v>0.03116772443733743</v>
+        <v>0.03101590215339408</v>
       </c>
       <c r="T7">
-        <v>0.03116772443733743</v>
+        <v>0.03101590215339408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.76965729360687</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H8">
-        <v>3.76965729360687</v>
+        <v>0.181747</v>
       </c>
       <c r="I8">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J8">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>6.050953431861074</v>
+        <v>0.105961590699</v>
       </c>
       <c r="R8">
-        <v>6.050953431861074</v>
+        <v>0.9536543162910003</v>
       </c>
       <c r="S8">
-        <v>0.0002737334435134097</v>
+        <v>3.918124502652761E-06</v>
       </c>
       <c r="T8">
-        <v>0.0002737334435134097</v>
+        <v>3.918124502652761E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.76965729360687</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H9">
-        <v>3.76965729360687</v>
+        <v>0.181747</v>
       </c>
       <c r="I9">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J9">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>536.9330123620864</v>
+        <v>8.66542757055778</v>
       </c>
       <c r="R9">
-        <v>536.9330123620864</v>
+        <v>77.98884813502002</v>
       </c>
       <c r="S9">
-        <v>0.02428981218662212</v>
+        <v>0.0003204201056834988</v>
       </c>
       <c r="T9">
-        <v>0.02428981218662212</v>
+        <v>0.0003204201056834987</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.76965729360687</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H10">
-        <v>3.76965729360687</v>
+        <v>0.181747</v>
       </c>
       <c r="I10">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J10">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>458.4452671188609</v>
+        <v>8.045625388854667</v>
       </c>
       <c r="R10">
-        <v>458.4452671188609</v>
+        <v>72.41062849969201</v>
       </c>
       <c r="S10">
-        <v>0.02073917822108798</v>
+        <v>0.0002975017812330191</v>
       </c>
       <c r="T10">
-        <v>0.02073917822108798</v>
+        <v>0.0002975017812330191</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.76965729360687</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H11">
-        <v>3.76965729360687</v>
+        <v>0.181747</v>
       </c>
       <c r="I11">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J11">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>470.8833022160308</v>
+        <v>7.615634523482668</v>
       </c>
       <c r="R11">
-        <v>470.8833022160308</v>
+        <v>68.540710711344</v>
       </c>
       <c r="S11">
-        <v>0.021301850900035</v>
+        <v>0.0002816020789501731</v>
       </c>
       <c r="T11">
-        <v>0.021301850900035</v>
+        <v>0.000281602078950173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.76965729360687</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H12">
-        <v>3.76965729360687</v>
+        <v>0.181747</v>
       </c>
       <c r="I12">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J12">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>198.536885986614</v>
+        <v>3.246394094490556</v>
       </c>
       <c r="R12">
-        <v>198.536885986614</v>
+        <v>29.217546850415</v>
       </c>
       <c r="S12">
-        <v>0.008981425171674138</v>
+        <v>0.000120041386345578</v>
       </c>
       <c r="T12">
-        <v>0.008981425171674138</v>
+        <v>0.000120041386345578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.76965729360687</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H13">
-        <v>3.76965729360687</v>
+        <v>0.181747</v>
       </c>
       <c r="I13">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J13">
-        <v>0.07928392849370547</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>81.74373320590881</v>
+        <v>1.393558127507556</v>
       </c>
       <c r="R13">
-        <v>81.74373320590881</v>
+        <v>12.542023147568</v>
       </c>
       <c r="S13">
-        <v>0.003697928570772814</v>
+        <v>5.152937219269003E-05</v>
       </c>
       <c r="T13">
-        <v>0.003697928570772814</v>
+        <v>5.152937219269003E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.644664834219579</v>
+        <v>6.725386</v>
       </c>
       <c r="H14">
-        <v>9.644664834219579</v>
+        <v>20.176158</v>
       </c>
       <c r="I14">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="J14">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>15.48135897572045</v>
+        <v>11.763043108686</v>
       </c>
       <c r="R14">
-        <v>15.48135897572045</v>
+        <v>105.867387978174</v>
       </c>
       <c r="S14">
-        <v>0.0007003467718619998</v>
+        <v>0.000434960131552067</v>
       </c>
       <c r="T14">
-        <v>0.0007003467718619998</v>
+        <v>0.000434960131552067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.644664834219579</v>
+        <v>6.725386</v>
       </c>
       <c r="H15">
-        <v>9.644664834219579</v>
+        <v>20.176158</v>
       </c>
       <c r="I15">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="J15">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>1373.742634759588</v>
+        <v>961.9693078902535</v>
       </c>
       <c r="R15">
-        <v>1373.742634759588</v>
+        <v>8657.723771012281</v>
       </c>
       <c r="S15">
-        <v>0.06214546288422998</v>
+        <v>0.03557058261565235</v>
       </c>
       <c r="T15">
-        <v>0.06214546288422998</v>
+        <v>0.03557058261565235</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.644664834219579</v>
+        <v>6.725386</v>
       </c>
       <c r="H16">
-        <v>9.644664834219579</v>
+        <v>20.176158</v>
       </c>
       <c r="I16">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="J16">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>1172.931808335571</v>
+        <v>893.163623357432</v>
       </c>
       <c r="R16">
-        <v>1172.931808335571</v>
+        <v>8038.472610216889</v>
       </c>
       <c r="S16">
-        <v>0.0530611690401583</v>
+        <v>0.03302636601120694</v>
       </c>
       <c r="T16">
-        <v>0.0530611690401583</v>
+        <v>0.03302636601120695</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.644664834219579</v>
+        <v>6.725386</v>
       </c>
       <c r="H17">
-        <v>9.644664834219579</v>
+        <v>20.176158</v>
       </c>
       <c r="I17">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="J17">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>1204.754510073447</v>
+        <v>845.4293353730241</v>
       </c>
       <c r="R17">
-        <v>1204.754510073447</v>
+        <v>7608.864018357216</v>
       </c>
       <c r="S17">
-        <v>0.05450076658899119</v>
+        <v>0.03126130300927753</v>
       </c>
       <c r="T17">
-        <v>0.05450076658899119</v>
+        <v>0.03126130300927753</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.644664834219579</v>
+        <v>6.725386</v>
       </c>
       <c r="H18">
-        <v>9.644664834219579</v>
+        <v>20.176158</v>
       </c>
       <c r="I18">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="J18">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>507.9564462843849</v>
+        <v>360.3897735902567</v>
       </c>
       <c r="R18">
-        <v>507.9564462843849</v>
+        <v>3243.50796231231</v>
       </c>
       <c r="S18">
-        <v>0.0229789683166498</v>
+        <v>0.01332607403394512</v>
       </c>
       <c r="T18">
-        <v>0.0229789683166498</v>
+        <v>0.01332607403394513</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.644664834219579</v>
+        <v>6.725386</v>
       </c>
       <c r="H19">
-        <v>9.644664834219579</v>
+        <v>20.176158</v>
       </c>
       <c r="I19">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="J19">
-        <v>0.2028478605625115</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>209.1412687317554</v>
+        <v>154.7021351811947</v>
       </c>
       <c r="R19">
-        <v>209.1412687317554</v>
+        <v>1392.319216630752</v>
       </c>
       <c r="S19">
-        <v>0.009461146960620203</v>
+        <v>0.005720395687414484</v>
       </c>
       <c r="T19">
-        <v>0.009461146960620203</v>
+        <v>0.005720395687414486</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.463279032513029</v>
+        <v>10.51787666666667</v>
       </c>
       <c r="H20">
-        <v>0.463279032513029</v>
+        <v>31.55363</v>
       </c>
       <c r="I20">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="J20">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>0.743643157283342</v>
+        <v>18.39630270171</v>
       </c>
       <c r="R20">
-        <v>0.743643157283342</v>
+        <v>165.56672431539</v>
       </c>
       <c r="S20">
-        <v>3.364097980270606E-05</v>
+        <v>0.0006802370925002295</v>
       </c>
       <c r="T20">
-        <v>3.364097980270606E-05</v>
+        <v>0.0006802370925002296</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.463279032513029</v>
+        <v>10.51787666666667</v>
       </c>
       <c r="H21">
-        <v>0.463279032513029</v>
+        <v>31.55363</v>
       </c>
       <c r="I21">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="J21">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>65.98737951942726</v>
+        <v>1504.430308908422</v>
       </c>
       <c r="R21">
-        <v>65.98737951942726</v>
+        <v>13539.8727801758</v>
       </c>
       <c r="S21">
-        <v>0.002985141569454039</v>
+        <v>0.05562907480892677</v>
       </c>
       <c r="T21">
-        <v>0.002985141569454039</v>
+        <v>0.05562907480892677</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.463279032513029</v>
+        <v>10.51787666666667</v>
       </c>
       <c r="H22">
-        <v>0.463279032513029</v>
+        <v>31.55363</v>
       </c>
       <c r="I22">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="J22">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>56.34148233347404</v>
+        <v>1396.824633355853</v>
       </c>
       <c r="R22">
-        <v>56.34148233347404</v>
+        <v>12571.42170020268</v>
       </c>
       <c r="S22">
-        <v>0.002548779815522117</v>
+        <v>0.05165015724808457</v>
       </c>
       <c r="T22">
-        <v>0.002548779815522117</v>
+        <v>0.05165015724808458</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.463279032513029</v>
+        <v>10.51787666666667</v>
       </c>
       <c r="H23">
-        <v>0.463279032513029</v>
+        <v>31.55363</v>
       </c>
       <c r="I23">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="J23">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>57.87007775140565</v>
+        <v>1322.172657425973</v>
       </c>
       <c r="R23">
-        <v>57.87007775140565</v>
+        <v>11899.55391683376</v>
       </c>
       <c r="S23">
-        <v>0.002617930519159336</v>
+        <v>0.0488897632776582</v>
       </c>
       <c r="T23">
-        <v>0.002617930519159336</v>
+        <v>0.0488897632776582</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.463279032513029</v>
+        <v>10.51787666666667</v>
       </c>
       <c r="H24">
-        <v>0.463279032513029</v>
+        <v>31.55363</v>
       </c>
       <c r="I24">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="J24">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>24.39955924216708</v>
+        <v>563.6160051705943</v>
       </c>
       <c r="R24">
-        <v>24.39955924216708</v>
+        <v>5072.544046535349</v>
       </c>
       <c r="S24">
-        <v>0.001103788922981945</v>
+        <v>0.02084073734056364</v>
       </c>
       <c r="T24">
-        <v>0.001103788922981945</v>
+        <v>0.02084073734056364</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.463279032513029</v>
+        <v>10.51787666666667</v>
       </c>
       <c r="H25">
-        <v>0.463279032513029</v>
+        <v>31.55363</v>
       </c>
       <c r="I25">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="J25">
-        <v>0.009743745604856194</v>
+        <v>0.1866361352851859</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>10.04604787227271</v>
+        <v>241.9397158625244</v>
       </c>
       <c r="R25">
-        <v>10.04604787227271</v>
+        <v>2177.45744276272</v>
       </c>
       <c r="S25">
-        <v>0.0004544637979360519</v>
+        <v>0.008946165517452444</v>
       </c>
       <c r="T25">
-        <v>0.0004544637979360519</v>
+        <v>0.008946165517452446</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.89641206738315</v>
+        <v>0.4695343333333333</v>
       </c>
       <c r="H26">
-        <v>1.89641206738315</v>
+        <v>1.408603</v>
       </c>
       <c r="I26">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="J26">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>3.04407011396393</v>
+        <v>0.8212394952510002</v>
       </c>
       <c r="R26">
-        <v>3.04407011396393</v>
+        <v>7.391155457259002</v>
       </c>
       <c r="S26">
-        <v>0.0001377078511634355</v>
+        <v>3.036683922601301E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001377078511634355</v>
+        <v>3.036683922601301E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.89641206738315</v>
+        <v>0.4695343333333333</v>
       </c>
       <c r="H27">
-        <v>1.89641206738315</v>
+        <v>1.408603</v>
       </c>
       <c r="I27">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="J27">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>270.1163964551196</v>
+        <v>67.16010317733112</v>
       </c>
       <c r="R27">
-        <v>270.1163964551196</v>
+        <v>604.44092859598</v>
       </c>
       <c r="S27">
-        <v>0.0122195439419126</v>
+        <v>0.002483368210347864</v>
       </c>
       <c r="T27">
-        <v>0.0122195439419126</v>
+        <v>0.002483368210347864</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.89641206738315</v>
+        <v>0.4695343333333333</v>
       </c>
       <c r="H28">
-        <v>1.89641206738315</v>
+        <v>1.408603</v>
       </c>
       <c r="I28">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="J28">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>230.6313463224776</v>
+        <v>62.35641886587867</v>
       </c>
       <c r="R28">
-        <v>230.6313463224776</v>
+        <v>561.207769792908</v>
       </c>
       <c r="S28">
-        <v>0.01043331655447369</v>
+        <v>0.002305743156971914</v>
       </c>
       <c r="T28">
-        <v>0.01043331655447369</v>
+        <v>0.002305743156971914</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.89641206738315</v>
+        <v>0.4695343333333333</v>
       </c>
       <c r="H29">
-        <v>1.89641206738315</v>
+        <v>1.408603</v>
       </c>
       <c r="I29">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="J29">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>236.8885835235386</v>
+        <v>59.02383883465067</v>
       </c>
       <c r="R29">
-        <v>236.8885835235386</v>
+        <v>531.214549511856</v>
       </c>
       <c r="S29">
-        <v>0.01071638187718926</v>
+        <v>0.002182514887263341</v>
       </c>
       <c r="T29">
-        <v>0.01071638187718926</v>
+        <v>0.002182514887263341</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.89641206738315</v>
+        <v>0.4695343333333333</v>
       </c>
       <c r="H30">
-        <v>1.89641206738315</v>
+        <v>1.408603</v>
       </c>
       <c r="I30">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="J30">
-        <v>0.03988558827350156</v>
+        <v>0.00833172665303861</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>99.87850806603126</v>
+        <v>25.16069294503722</v>
       </c>
       <c r="R30">
-        <v>99.87850806603126</v>
+        <v>226.446236505335</v>
       </c>
       <c r="S30">
-        <v>0.004518310751151772</v>
+        <v>0.0009303628501738143</v>
       </c>
       <c r="T30">
-        <v>0.004518310751151772</v>
+        <v>0.0009303628501738144</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.408603</v>
+      </c>
+      <c r="I31">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J31">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>10.80056429587022</v>
+      </c>
+      <c r="R31">
+        <v>97.20507866283201</v>
+      </c>
+      <c r="S31">
+        <v>0.0003993707090556639</v>
+      </c>
+      <c r="T31">
+        <v>0.000399370709055664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.116661</v>
+      </c>
+      <c r="H32">
+        <v>6.349983</v>
+      </c>
+      <c r="I32">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J32">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.749051</v>
+      </c>
+      <c r="N32">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P32">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q32">
+        <v>3.702148038711001</v>
+      </c>
+      <c r="R32">
+        <v>33.31933234839901</v>
+      </c>
+      <c r="S32">
+        <v>0.000136893725804159</v>
+      </c>
+      <c r="T32">
+        <v>0.000136893725804159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.116661</v>
+      </c>
+      <c r="H33">
+        <v>6.349983</v>
+      </c>
+      <c r="I33">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J33">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N33">
+        <v>429.10666</v>
+      </c>
+      <c r="O33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q33">
+        <v>302.7577773540867</v>
+      </c>
+      <c r="R33">
+        <v>2724.81999618678</v>
+      </c>
+      <c r="S33">
+        <v>0.01119502508403671</v>
+      </c>
+      <c r="T33">
+        <v>0.01119502508403671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.116661</v>
+      </c>
+      <c r="H34">
+        <v>6.349983</v>
+      </c>
+      <c r="I34">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J34">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.804812</v>
+      </c>
+      <c r="N34">
+        <v>398.414436</v>
+      </c>
+      <c r="O34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q34">
+        <v>281.102766172732</v>
+      </c>
+      <c r="R34">
+        <v>2529.924895554588</v>
+      </c>
+      <c r="S34">
+        <v>0.01039429125817422</v>
+      </c>
+      <c r="T34">
+        <v>0.01039429125817422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.116661</v>
+      </c>
+      <c r="H35">
+        <v>6.349983</v>
+      </c>
+      <c r="I35">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J35">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>125.707184</v>
+      </c>
+      <c r="N35">
+        <v>377.121552</v>
+      </c>
+      <c r="O35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q35">
+        <v>266.079493792624</v>
+      </c>
+      <c r="R35">
+        <v>2394.715444133616</v>
+      </c>
+      <c r="S35">
+        <v>0.009838778159189732</v>
+      </c>
+      <c r="T35">
+        <v>0.009838778159189732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.89641206738315</v>
-      </c>
-      <c r="H31">
-        <v>1.89641206738315</v>
-      </c>
-      <c r="I31">
-        <v>0.03988558827350156</v>
-      </c>
-      <c r="J31">
-        <v>0.03988558827350156</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N31">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O31">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P31">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q31">
-        <v>41.12304912903864</v>
-      </c>
-      <c r="R31">
-        <v>41.12304912903864</v>
-      </c>
-      <c r="S31">
-        <v>0.001860327297610794</v>
-      </c>
-      <c r="T31">
-        <v>0.001860327297610794</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.116661</v>
+      </c>
+      <c r="H36">
+        <v>6.349983</v>
+      </c>
+      <c r="I36">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J36">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N36">
+        <v>160.759445</v>
+      </c>
+      <c r="O36">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P36">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q36">
+        <v>113.4244158710483</v>
+      </c>
+      <c r="R36">
+        <v>1020.819742839435</v>
+      </c>
+      <c r="S36">
+        <v>0.004194076175072229</v>
+      </c>
+      <c r="T36">
+        <v>0.00419407617507223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.116661</v>
+      </c>
+      <c r="H37">
+        <v>6.349983</v>
+      </c>
+      <c r="I37">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J37">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N37">
+        <v>69.008144</v>
+      </c>
+      <c r="O37">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P37">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q37">
+        <v>48.68894902906133</v>
+      </c>
+      <c r="R37">
+        <v>438.200541261552</v>
+      </c>
+      <c r="S37">
+        <v>0.001800363348084174</v>
+      </c>
+      <c r="T37">
+        <v>0.001800363348084174</v>
       </c>
     </row>
   </sheetData>
